--- a/src/data/y_true_grouping.xlsx
+++ b/src/data/y_true_grouping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack0\Documents\GitHub\job-ad-enrichment\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack0\Documents\GitHub\job-ad-enrichment\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED1DA9-AC5E-4166-B32E-80BC8C908717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F6CC86-9058-4DEC-9BE3-91EA58C93B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{217BEB44-0F72-4575-A307-40937898686E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t>1st year apprentice</t>
   </si>
@@ -635,11 +635,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9527FC-2DBD-44C7-A27C-B136152FC00C}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1231,6 +1229,30 @@
         <v>40</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
